--- a/Linq/Linq.xlsx
+++ b/Linq/Linq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="LINQ " sheetId="1" r:id="rId1"/>
@@ -999,14 +999,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,28 +1309,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1346,243 +1349,325 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1691,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1704,21 +1789,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B2" t="s">
@@ -1741,57 +1826,57 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D7" t="s">
@@ -1799,12 +1884,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1824,7 +1909,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1850,7 +1935,7 @@
       <c r="A22" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Linq/Linq.xlsx
+++ b/Linq/Linq.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LINQ " sheetId="1" r:id="rId1"/>
     <sheet name="LINQ to SQL" sheetId="2" r:id="rId2"/>
     <sheet name="Comparison" sheetId="3" r:id="rId3"/>
+    <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
   <si>
     <t>Aggregate Operators</t>
   </si>
@@ -915,13 +916,145 @@
   </si>
   <si>
     <t>Conditional Mapping-Table level filter</t>
+  </si>
+  <si>
+    <t>AsEnumerable()</t>
+  </si>
+  <si>
+    <t>Employee_DbEntities edb = new Employee_DbEntities();</t>
+  </si>
+  <si>
+    <t>With AsEnumerable, query gets converted as Select col1, col2 from Employee</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Without AsEnumerable, query gets converted as Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Top 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> col1, col2 from Employee</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>List&lt;Employee&gt; empl = edb.Employees.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AsEnumerable()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Take(3).ToList();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>INNER JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in SQL and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GroupJoin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OUTER JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in SQL </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1089,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -999,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1007,6 +1147,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1691,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1871,4 +2012,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>